--- a/spreadsheet/macrofree/avs_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -976,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1094,27 +1059,23 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>バックアップ</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="inlineStr">
-        <is>
-          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア</t>
-        </is>
-      </c>
+          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認します</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,17 +1084,13 @@
         </is>
       </c>
       <c r="G8" s="21" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>976f32a7-30d1-6caa-c2a0-207fdc26571b</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1144,24 +1101,20 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>MABSをバックアップソリューションとして使用する</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>マイクロソフトのバックアップ サービス</t>
-        </is>
-      </c>
+          <t>Azure ベースのリソース (Azure VMware ソリューションを含む) からの認証要求を Azure ローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1173,17 +1126,13 @@
         </is>
       </c>
       <c r="G9" s="21" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H9" s="15" t="n"/>
       <c r="I9" s="15" t="n"/>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>fc8af7a1-c724-e255-c18d-4ca22a6f27f0</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1194,27 +1143,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのプライベート クラウドと同じリージョンにバックアップ ソリューションをデプロイする</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>ベスト・プラクティス:これはバックアップであり、災害復旧ではありません</t>
-        </is>
-      </c>
+          <t>vCenter が ADDS に接続され、「名前付きユーザ アカウント」に基づく認証が有効になっていることを確認します。</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1223,17 +1168,13 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="inlineStr">
-        <is>
-          <t>Best practice to deploy backup in the same region as your AVS deployment</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>be28860f-3d29-a79a-1a0e-36f1b23b36ae</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1244,24 +1185,20 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>できれば、ネイティブの Azure IaaS として SDDC の外部に MABS をデプロイする</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>ベスト・プラクティス - AVSが利用できない場合</t>
-        </is>
-      </c>
+          <t>vCenter から ADDS への接続でセキュア プロトコル(LDAPS)が使用されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1273,17 +1210,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4d2f79a5-4ccf-0dfc-557c-49619b99a540</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1294,24 +1227,20 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>地域 DR が発生した場合のマイクロソフトとのエスカレーション プロセス</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは実施されていますか?</t>
-        </is>
-      </c>
+          <t>vCenter IdP のクラウド管理者アカウントは、緊急アカウント (非常用アカウント) としてのみ使用されます</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1323,17 +1252,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>Will Disaster Recovery Site Recovery, HCX Disaster Recovery, SRM or back tools be used?</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>ff431c40-962c-5182-d536-0c2f0c4ce9e0</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1344,27 +1269,23 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>両方のサイトが Azure VMware ソリューションである場合は、VMware Site Recovery Manager を使用する</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>SRMとHCXの比較</t>
-        </is>
-      </c>
+          <t>NSX-Manager が外部アイデンティティプロバイダと統合されていることを確認する</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1373,17 +1294,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/disaster-recovery-using-vmware-site-recovery-manager</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>f379436d-3051-daa0-01fb-dc4e0e04d677</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,24 +1311,20 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS である場合に Azure Site Recovery を使用する</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>VMwareソリューションではなくAzureへのリカバリ</t>
-        </is>
-      </c>
+          <t>VMware vSphere 内で使用するために RBAC モデルが作成されている</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1423,17 +1336,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>367f71d8-3cf6-51a0-91a5-3db3d570cc19</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,24 +1353,20 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>いずれかの災害ソリューションで自動復旧計画を使用し、</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>手作業はできるだけ避けてください</t>
-        </is>
-      </c>
+          <t>RBAC アクセス許可は、特定のユーザーではなく、ADDS グループに付与する必要があります</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1473,17 +1378,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>ee02ada0-1887-bb3a-b84c-423f45a09ef9</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,27 +1395,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>セカンダリ障害復旧環境を構成する</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>同じリージョン内の他のデータセンター</t>
-        </is>
-      </c>
+          <t>Azure の Azure VMware ソリューション リソースに対する RBAC アクセス許可は、限られた所有者のセットにのみ "ロックダウン" されます</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1523,17 +1420,13 @@
         </is>
       </c>
       <c r="G16" s="21" t="n"/>
-      <c r="H16" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/connect-multiple-private-clouds-same-region</t>
-        </is>
-      </c>
+      <c r="H16" s="15" t="n"/>
       <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>0c2b74e5-9c28-780d-1df3-12d3de4aaa76</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,27 +1437,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>各リージョンに固有の IP 範囲を割り当てる</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>領域間で 2 つの異なるアドレス空間を使用します (例: 異なる領域には 10.0.0.0/16 と 192.168.0.0/16 )。</t>
-        </is>
-      </c>
+          <t>手元のお客様のユース ケースに対して正しい Azure VMware ソリューション接続モデルが選択されているか</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1575,7 +1464,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1583,7 +1472,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>c2a34ec4-2933-4e6c-dc36-e20e67abbe3f</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,27 +1483,23 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>DR リージョン間のグローバル リーチの使用</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>ExpressRoute グローバル リーチは、プライマリとセカンダリの Azure VMware ソリューション プライベート クラウド間の接続に使用できますか、それともルーティングはネットワーク仮想アプライアンスを介して行う必要がありますか?</t>
-        </is>
-      </c>
+          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,17 +1508,13 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>This depends if you have multiple AVS Private Clouds. If so and they are in the same region then use AVS Interconnect. If they are in separate regions then use ExpressRoute Global Reach.</t>
-        </is>
-      </c>
+      <c r="H18" s="15" t="n"/>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>b44fb6ec-bfc1-3a8e-dba2-ca97f0991d2c</t>
+          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,24 +1525,20 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化で Azure Key Vault を使用する</t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>ゲスト内暗号化を使用する場合は、可能な場合は暗号化キーを Azure Key Vault に格納します</t>
-        </is>
-      </c>
+          <t>Azure VM ware ソリューション バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware ソリューション仮想マシンへの接続モニターが作成されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1673,17 +1550,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>General recommendation for storing encryption keys.</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>70cfbddc-d3d4-9188-77c8-1cabaefef646</t>
+          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1694,24 +1567,20 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化を使用する</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションのワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されていることを確認します。(保存時の vSAN 暗号化がデフォルトです)</t>
-        </is>
-      </c>
+          <t>エンド 2 エンド接続を監視するために、オンプレミスのリソースから Azure VMware ソリューション仮想マシンへの接続モニターが作成されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1723,17 +1592,13 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#data-at-rest-encryption</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>c1a81638-18df-0ce9-a73a-4b9a8a8dd392</t>
+          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,27 +1609,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>ルーティング</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>シークレットに対するキーコンテナーの使用</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します。</t>
-        </is>
-      </c>
+          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミス (ARS 制限) に伝達されるルートが 200 を超えないようにしてください。MoNを使用する際に重要</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1773,17 +1634,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/key-vault/general/authentication</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8d0a8f51-8d35-19cd-c2fe-4e3512fb467e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1794,27 +1651,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>延長サポート</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>拡張セキュリティ更新プログラムのサポートを確認する</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションで実行されているワークロード用に構成された古い OS セキュリティ修正プログラムは、ESU の対象となります。</t>
-        </is>
-      </c>
+          <t>特権 ID 管理は、Azure ポータルで Azure VMware ソリューション リソースを管理するロールに実装されていますか (永続的なアクセス許可は許可されません)</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,17 +1676,13 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/windows-server/get-started/extended-security-updates-deploy</t>
-        </is>
-      </c>
+      <c r="H22" s="15" t="n"/>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4f8b20e9-a2a1-f80f-af9b-8aa3b26dca08</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1844,27 +1693,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>究明</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure Sentinel または 3rd パーティの SIEM を有効にする</t>
-        </is>
-      </c>
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>SIEM/SOAR を使用する</t>
-        </is>
-      </c>
+          <t>特権 ID 管理監査レポートは、Azure VMware ソリューション PIM ロールに対して実装されていますか</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1873,17 +1718,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/sentinel/overview</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bb22fec-4d00-3b95-7136-e225d0f5c63a</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1894,27 +1735,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Direct (vWAN なし、H&amp;S なし)</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>ExR 回線へのグローバル リーチ - Azure リソースなし</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>ExR グローバル リーチ接続は ExR 回線に対して確立され、他の接続は確立されません。</t>
-        </is>
-      </c>
+          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1923,17 +1760,13 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H24" s="15" t="n"/>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>a2c12df2-07fa-3edd-2cec-fda0b55fb952</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1944,24 +1777,20 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>ExR を使用して Azure に接続する</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="inlineStr">
-        <is>
-          <t>ExR を使用してオンプレミス (その他) の場所を Azure に接続する</t>
-        </is>
-      </c>
+          <t>vCenter でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装する</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1973,17 +1802,13 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>f62ce162-ba5a-429d-674e-fafa1af5f706</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1994,24 +1819,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>帯域幅のサイジング</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>移行評価ツールとタイムラインを使用して、必要な帯域幅を決定する</t>
-        </is>
-      </c>
+          <t>クラウド管理者 (vCenter) と管理者 (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2023,17 +1844,13 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-introduction</t>
-        </is>
-      </c>
+      <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>cf01c73b-1247-0a7a-740c-e1ea29bda340</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2044,27 +1861,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>トラフィック ルーティング</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>ファイアウォール経由でルーティングされるトラフィック、Azure に直接送信されるトラフィック</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションで実行されているワークロード (VM) に使用する一元化された ID プロバイダーを使用する</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2073,16 +1886,12 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>aab216ee-8941-315e-eada-c7e1f2243bd1</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2093,24 +1902,20 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>エクスプレスルート</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>グローバルリーチ</t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>AVSからExR回線、トラフィックインスペクションなし</t>
-        </is>
-      </c>
+          <t>東西トラフィックフィルタリングはNSX-T内に実装されていますか</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2122,16 +1927,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1f956e45-f62d-5c95-3a95-3bab718907f8</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,27 +1943,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>vNet 名とアドレス空間</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>vNet の名前と一意のアドレス空間 /24 以上</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューション上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure アプリケーション ゲートウェイ、Azure ファイアウォール、またはサード パーティのソリューションによってフィルター処理および検査されます</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2171,16 +1968,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/quick-create-portal</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>91f7a87b-21ac-d712-959c-8df2ba034253</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2191,27 +1984,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイ サブネット</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>サブネットはゲートウェイサブネットと呼ばれる必要があります</t>
-        </is>
-      </c>
+          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードに対する受信インターネット要求に対して実装されます</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2220,16 +2009,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>58a027e2-f37f-b540-45d5-e44843aba26b</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2240,24 +2025,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>ハブ ゲートウェイ サブネットに VPN ゲートウェイを作成する</t>
-        </is>
-      </c>
+          <t>セッション監視は、疑わしい/悪意のあるアクティビティを識別するために、Azure VMware ソリューションまたは Azure VMware ソリューション ベースのワークロードからの送信インターネット接続に対して実装されます</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2269,16 +2050,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>d4806549-0913-3e79-b580-ac2d3706e65a</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2289,24 +2066,20 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ExR ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>ハブ ゲートウェイ サブネットに ExR ゲートウェイを作成します。</t>
-        </is>
-      </c>
+          <t>Azure の ExR/VPN ゲートウェイ サブネットで DDoS 標準保護が有効になっていますか</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2318,17 +2091,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>864d7a8b-7016-c769-a717-61af6bfb73d2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2339,24 +2108,20 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>エグレス ポイント</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>インターネット トラフィックは、ルート、AZ ファイアウォール、NVA、セキュア ハブ、オンプレミス ファイアウォールにどのようになりますか?</t>
-        </is>
-      </c>
+          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware ソリューション、vCenter、NSX マネージャー、HCX マネージャーを管理する</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2368,17 +2133,13 @@
         </is>
       </c>
       <c r="G33" s="21" t="n"/>
-      <c r="H33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/enable-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cc2e11b9-7911-7da1-458c-d7fcef794aad</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2389,24 +2150,20 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>AVSへのリモート接続</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>ポータルを介したAVS、特にvCenter、NSX-T、HCXへのリモート接続を許可します</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution で実行されているワークロードに対して高度な脅威検出 (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2418,17 +2175,13 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
-        </is>
-      </c>
+      <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>71e68ce3-982e-5e56-0191-01100ad0e66f</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2439,24 +2192,20 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>ジャンムボックスと Azure 要塞を構成する</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>ジャンプボックスに名前を付け、ホストされるサブネットを特定します</t>
-        </is>
-      </c>
+          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2468,17 +2217,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/tutorial-create-host-portal</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>6f8e93a2-44b1-bb1d-28a1-4d5b3c2ea857</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2489,27 +2234,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>ポータル経由でのRDPアクセスを許可するセキュリティ対策</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>ポータルを介して直接 VM への安全でシームレスな RDP/SSH 接続を提供します。</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューション上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されていることを確認します。(保存時の vSAN 暗号化がデフォルトです)</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,17 +2259,13 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-groups-overview</t>
-        </is>
-      </c>
+      <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ba430d58-4541-085c-3641-068c00be9bc5</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2276,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>VPN を使用して Azure に接続する</t>
-        </is>
-      </c>
-      <c r="D37" s="21" t="inlineStr">
-        <is>
-          <t>VPN を使用して Azure に接続し、VMware 通信 (HCX) を有効にする (推奨されません)</t>
-        </is>
-      </c>
+          <t>ゲスト内暗号化を使用する場合は、可能な場合は暗号化キーを Azure Key Vault に格納します</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2568,17 +2301,13 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-site-to-site-vpn-gateway</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9988598f-2a9f-6b12-9b46-488415ceb325</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,27 +2318,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>帯域幅のサイジング</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>移行評価ツールとタイムラインを使用して、必要な帯域幅を決定します(例:リンク内のサードパーティツール)</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションで実行されているワークロードに対して拡張セキュリティ更新プログラムのサポートが構成されていることを確認する (Azure VMware ソリューションは ESU の対象です)</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2618,17 +2343,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://www.omnicalculator.com/other/data-transfer#:~:text=To%20calculate%20the%20data%20transfer%20speed%3A%201%20Download,measured%20time%20to%20find%20the%20data%20transfer%20speed.</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>956ce5e9-a862-fe2b-a50d-a22923569357</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,27 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>トラフィック ルーティング</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>ファイアウォール経由でルーティングされるトラフィック、Azure に直接送信されるトラフィック</t>
-        </is>
-      </c>
+          <t>適切な VM テンプレート ストレージ ポリシーが使用されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2668,17 +2385,13 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>e095116f-0bdc-4b51-4d71-b9e469d56f59</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>vWAN ハブ</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>vWAN 名、ハブ名、およびアドレス空間</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>vWAN の名前と一意のアドレス空間、vWAN ハブの名前</t>
-        </is>
-      </c>
+          <t>十分なクォータを要求し、拡張と災害復旧の要件を検討したことを確認します</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2718,17 +2427,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-site-to-site-portal#openvwan</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>4dc480ac-cecd-39c4-fdc6-680b300716ab</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2739,27 +2444,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>vWAN ハブ</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>プロビジョニングされた ExR および/または VPN ゲートウェイ</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>boh または適切な接続タイプを選択します。</t>
-        </is>
-      </c>
+          <t>vSAN ストレージのニーズを満たすために [許容できない] ポリシーが設定されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2768,17 +2469,13 @@
         </is>
       </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-point-to-site-portal</t>
-        </is>
-      </c>
+      <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>51d6affd-8e02-6aea-d3d4-0baf618b3076</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2789,24 +2486,20 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>vWAN ハブ</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>セキュアな vWAN</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>Azure ファイアウォールを vWAN に追加する (推奨)</t>
-        </is>
-      </c>
+          <t>ESXiへのアクセス制約を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認します。</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2818,17 +2511,13 @@
         </is>
       </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-expressroute-portal</t>
-        </is>
-      </c>
+      <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e32a4c67-3dc0-c134-1c12-52d46dcbab5b</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2839,27 +2528,23 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>アクセス</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>外部 ID (ユーザー アカウント)</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>アクティブディレクトリまたはその他のアイデンティティプロバイダサーバ</t>
-        </is>
-      </c>
+          <t>ESXi ホストの密度と効率に関するポリシーがあり、新しいノードを要求するリード タイムを念頭に置いてください</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2868,17 +2553,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>fbc47fbf-bc96-fa93-ed5d-8c9be63cd5c3</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2889,24 +2570,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>アクセス</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>AD ドメインを使用している場合は、Sites &amp; Services が構成されていることを確認する</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>LDAPS には不要、Kerberos には必要</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションに対して適切なコスト管理プロセスが実施されていることを確認する - Azure コスト管理を使用できます</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2918,17 +2595,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b5db7975-f6bb-8ba3-ee5f-e3e805887997</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2939,27 +2612,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>アクセス</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>LDAP ではなく LDAPS を使用する( vCenter )</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>ユーザーの認証は、セキュリティで保護されている必要があります。</t>
-        </is>
-      </c>
+          <t>Azure 予約インスタンスは、Azure VMware ソリューションを使用するためのコストを最適化するために使用されますか</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2968,16 +2637,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>c30749c4-e2af-558c-2eb9-0b6ae84881d1</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2988,24 +2653,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>アクセス</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>LDAP ではなく LDAPS を使用する (NSX-T)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>ユーザーの認証は、セキュリティで保護されている必要があります。</t>
-        </is>
-      </c>
+          <t>他の Azure ネイティブ サービスを使用する場合は、Azure プライベート リンクの使用を検討してください</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3017,17 +2678,13 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-external-identity-source-nsx-t</t>
-        </is>
-      </c>
+      <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>64cb9b5c-9edd-787e-1dd8-2b2338e51635</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3038,24 +2695,20 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>LDAPS サーバーにインストールされているセキュリティ証明書</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>CN または SAN 名、ワイルドカードなし、秘密キーを含む - CER または PFX</t>
-        </is>
-      </c>
+          <t>Microsoft Defender for Cloud for Azure VMware Solution ゲスト VM ワークロードを有効にする</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3067,17 +2720,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://youtu.be/4jvfbsrhnEs</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>bec285ab-037e-d629-81d1-f61dac23cd4c</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3088,24 +2737,20 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>RBAC は Azure ロールに適用されます</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>標準の Azure ロールベースのアクセス制御</t>
-        </is>
-      </c>
+          <t>Azure Arc 対応サーバーを使用して Azure VMware ソリューションのゲスト VM ワークロードを管理する</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3117,16 +2762,12 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4ba394a2-3c33-104c-8e34-2dadaba9cc73</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3137,27 +2778,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>vCenter の RBAC モデル</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>実行可能な最小限のアクセスガイドラインを満たすために必要なロールを vCenter で作成する</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションでの診断ログとメトリック ログを有効にする</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3166,16 +2803,12 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity#view-the-vcenter-server-privileges</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b04ca129-83a9-3494-7512-347dd2d766db</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3186,24 +2819,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>クラウド管理者ロールの使用</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>vCenter IdP のクラウド管理者アカウントは、緊急アカウント(非常用)としてのみ使用されます</t>
-        </is>
-      </c>
+          <t>ログ分析エージェントを Azure VMware ソリューションのゲスト VM ワークロードにデプロイする</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3215,17 +2844,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8e477d2f-8004-3dd0-93d6-0aece9e1b2fb</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3236,24 +2861,20 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>特権 ID 管理が実装されているか</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Azure ポータルで Azure VMware ソリューション リソースを管理するロールの場合 (永続的なアクセス許可は許可されません)</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューション VM ワークロード用のバックアップ ポリシーとソリューションが文書化され、実装されていることを確認する</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3265,17 +2886,13 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>00e0b729-f9be-f600-8c32-5ec0e8f2ed63</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3286,24 +2903,20 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>特権 ID 管理監査レポートは実装されていますか</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution PIM ロールの場合</t>
-        </is>
-      </c>
+          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンスを監視する</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3315,17 +2928,13 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>0842d45f-41a8-8274-1155-2f6ed554d315</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3336,24 +2945,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>ベスト プラクティスについては、「監視/アラート」も参照してください。</t>
-        </is>
-      </c>
+          <t>適用可能なコンプライアンス ベースラインは、Microsoft Defender for Cloud に追加されていますか</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3365,16 +2970,12 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>915cbcd7-0640-eb7c-4162-9f33775de559</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3385,27 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>クラウド管理者 (vCenter) と管理者 (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>操作手順</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションのデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されました</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3414,17 +3011,13 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/rotate-cloudadmin-credentials?tabs=azure-portal</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>7effa0c0-9172-e8e4-726a-67dbea8be40a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3435,27 +3028,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>AVS VM Management (Azure Arc)</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理するには、Azure ARC for Server を使用します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
-        </is>
-      </c>
+          <t>データ処理の影響(サービスプロバイダー/サービスコンシューマーモデル)は明確で文書化されていますか</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3464,16 +3053,12 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-arc/vmware-vsphere/overview</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>8f426fd0-d73b-d398-1f6f-df0cbe262a82</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3074,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシー</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションで Azure VMware ソリューション ワークロードをオンボードする</t>
-        </is>
-      </c>
+          <t>ダッシュボードを作成して、コア Azure VMware ソリューションの監視分析情報を有効にする</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3513,16 +3094,12 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>11dbe773-e380-9191-1418-e886fa7a6fd0</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3115,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>リソースのロック</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>手動デプロイの場合は、Azure VMware ソリューションのプライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックを実装することを検討してください。</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションのパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大なしきい値に関する警告アラートを作成する</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3562,16 +3135,12 @@
         </is>
       </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/management/lock-resources?tabs=json#configure-locks</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1e59c639-9b7e-a60b-5e93-3798c1aff5db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,22 +3156,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>ランブック</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>手動デプロイの場合は、すべての構成とデプロイを文書化する必要があります</t>
-        </is>
-      </c>
+          <t>vSAN の消費量が 75% を下回っているかどうかを監視するために、重要なアラートが作成されていることを確認します (これは VMware のサポートしきい値です)。</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,16 +3176,12 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>Make sure to create your own runbook on the deployment of AVS.</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8f2c46aa-ca1b-cad3-3ac9-213dfc0a265e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3636,22 +3197,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>認証キーの命名規則</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="inlineStr">
-        <is>
-          <t>ExR認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
-        </is>
-      </c>
+          <t>アラートが Azure サービス正常性のアラートと通知用に構成されていることを確認する</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3660,16 +3217,12 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-abbreviations</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>86b314f9-1f1e-317a-4dfb-cf510ad4a030</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,24 +3233,20 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
           <t>モニタリング</t>
         </is>
       </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>アラート</t>
-        </is>
-      </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>重大なしきい値に対する警告アラートを作成する</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションのパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、仮想 &gt;70%) の自動アラートの場合</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションのログ記録を、処理のために Azure ストレージ アカウントまたは Azure イベント ハブに送信するように構成する</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3709,16 +3258,12 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>e22a2d99-eb71-7d7c-07af-6d4cdb1d4443</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,27 +3274,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
           <t>モニタリング</t>
         </is>
       </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>アラート</t>
-        </is>
-      </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>重要なアラート vSAN の使用を作成する</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションのパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、仮想 &gt;70%)</t>
-        </is>
-      </c>
+          <t>VMware vSphere で詳細な分析情報が必要な場合: ソリューションでは vRealize Operations や vRealize Network Insights が使用されていますか?</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3758,16 +3299,12 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6d02f159-627d-79bf-a931-fab6d947eda2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3778,27 +3315,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>アラート</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure サービス正常性のアラートと通知用に構成</t>
-        </is>
-      </c>
-      <c r="D62" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォーム アラート (マイクロソフトによって生成) を提供します。</t>
-        </is>
-      </c>
+          <t>VM の vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、既定のストレージ ポリシーではないことを確認します</t>
+        </is>
+      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3807,16 +3340,12 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://www.virtualworkloads.com/2021/04/azure-vmware-solution-azure-service-health/</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>1cc97b39-2c7e-246f-6d73-789cfebfe951</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3827,24 +3356,20 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>バックアップ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>バックアップ ポリシー</t>
-        </is>
-      </c>
-      <c r="D63" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューション VM ワークロード用のバックアップ ポリシーとソリューションが文書化され、実装されていることを確認する</t>
-        </is>
-      </c>
+          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
+        </is>
+      </c>
+      <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3856,17 +3381,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>0962606c-e3b4-62a9-5661-e4ffd62a4509</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3877,24 +3398,20 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>能力</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>ESXi ホストの密度と効率に関するポリシー</t>
-        </is>
-      </c>
-      <c r="D64" s="21" t="inlineStr">
-        <is>
-          <t>新しいノードを要求するためのリードタイムに留意する</t>
-        </is>
-      </c>
+          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされたデータストアのいずれか</t>
+        </is>
+      </c>
+      <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3906,17 +3423,13 @@
         </is>
       </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>4ec7ccfb-795e-897e-4a84-fd31c04eadc6</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3927,24 +3440,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>コスト</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションの適切なコスト管理プロセスが実施されていることを確認する -</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>Azure Cost Management を使用できます - 1 つのオプションとして、AVS を独自のサブスクリプションに入れることができます。</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution で実行されているワークロードが、Azure Arc for Servers を使用してハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3956,17 +3465,13 @@
         </is>
       </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/govern</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>7f8f175d-13f4-5298-9e61-0bc7e9fcc279</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3977,24 +3482,20 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>接続モニター・ダッシュボード</t>
-        </is>
-      </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>ダッシュボードを作成して、Azure VMware ソリューションのコア監視分析情報を有効にする</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
+        </is>
+      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4006,16 +3507,12 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>01e689e0-7c6c-b58f-37bd-4d6b9b1b9c74</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4026,24 +3523,20 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>ログとメトリクス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのログ記録を構成する</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>処理のために Azure ストレージ アカウントまたは Azure イベント ハブに送信する (Log Analytics への直接送信は保留中です)</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションで実行されているワークロードを既存の更新管理ツールまたは Azure Update Management に含める</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4055,17 +3548,13 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>f9afdcc9-649d-d840-9fb5-a3c0edcc697d</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4076,24 +3565,20 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>ログとメトリクス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>vオペレーションの実現</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスである必要があり、可能な場合は実装する</t>
-        </is>
-      </c>
+          <t>Azure Policy を使用して、Azure の管理、監視、およびセキュリティ ソリューションで Azure VMware ソリューション ワークロードをオンボードする</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4105,17 +3590,13 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Is vROPS or vRealize Network Insight going to be used? </t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7cbac8c3-4eda-d5d9-9bda-c6b5abba9fb6</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4126,27 +3607,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>ログとメトリクス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>AVS VM のロギング</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution で実行されているワークロードが、Azure Log Analytics と Azure Monitor を使用して監視されていることを確認します。</t>
-        </is>
-      </c>
+          <t>ANF を使用して Azure VMware ソリューションのストレージを拡張する場合は、現時点では VM レベルでのみ使用してください (NFS データストアとしての ANF はまだプライベート プレビュー段階です)</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4155,17 +3632,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>b243521a-644d-f865-7fb6-21f9019c0dd2</t>
+          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4176,24 +3649,20 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 接続や VPN 接続を監視する</t>
-        </is>
-      </c>
-      <c r="D70" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスと Azure の間は、"接続モニター" を使用して監視されます</t>
-        </is>
-      </c>
+          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
+        </is>
+      </c>
+      <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4205,17 +3674,13 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>2ca97d91-dd36-7229-b668-01036ccc3cd3</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,24 +3691,20 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク</t>
+          <t>バックアップ</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブ リソースから Azure VMware Solution VM への監視</t>
-        </is>
-      </c>
-      <c r="D71" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するには (Azure ネイティブから AVS へ)</t>
-        </is>
-      </c>
+          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
+        </is>
+      </c>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4255,17 +3716,13 @@
         </is>
       </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>99209143-60fe-19f0-5633-8b5671277ba5</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,24 +3733,20 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスのリソースから Azure VMware ソリューション VM への監視</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>エンドツーエンドのオンプレミスからAVSへのワークロードを監視するには</t>
-        </is>
-      </c>
+          <t>両方のサイトが Azure VMware Solution である場合は、VMware Site Recovery Manager を使用します</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4305,17 +3758,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>b9e5867c-57d3-036f-fb1b-3f0a71664efe</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,24 +3775,20 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>インバウンドインターネットの監査とログ記録が実装されている</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution および Azure VMware Solution ベースのワークロードへの要求を追跡する</t>
-        </is>
-      </c>
+          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS である場合は、Azure Site Recovery を使用します</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4355,17 +3800,13 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="inlineStr">
-        <is>
-          <t>Firewall logging and alerting rules are configured (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
+      <c r="H73" s="15" t="n"/>
       <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4af7c5f7-e5e9-bedf-a8cf-314b81735962</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,27 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>セッション監視</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションまたは Azure VMware ソリューション ベースのワークロードからの送信インターネット接続に対して実装され、疑わしい/悪意のあるアクティビティを特定します。</t>
-        </is>
-      </c>
+          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4405,17 +3842,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>74be60a3-cfac-f057-eda6-3ee087e805d5</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,24 +3859,20 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>ヴイエムウェア</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>ログ記録と診断</t>
-        </is>
-      </c>
-      <c r="D75" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware ソリューションで診断とメトリックのログを有効にする</t>
-        </is>
-      </c>
+          <t>地政学的地域ペアをセカンダリ障害復旧環境として使用する</t>
+        </is>
+      </c>
+      <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4455,17 +3884,13 @@
         </is>
       </c>
       <c r="G75" s="21" t="n"/>
-      <c r="H75" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>a434b3b5-f258-0845-cd76-d7df6ef5890e</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>ヴイエムウェア</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのゲスト VM ワークロードにデプロイされたログ分析エージェント</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>AVS ワークロードの監視 (AVS 内の各 VM)</t>
-        </is>
-      </c>
+          <t>領域間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16 異なる領域の場合)</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4505,17 +3926,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-monitor/agents/agent-windows?tabs=setup-wizard</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fb00b69a-83ec-ce72-446e-6c23a0cab09a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4526,24 +3943,20 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>AZファイアウォールまたは第三者を介した北/南ルーティング</t>
-        </is>
-      </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>交通流の決定</t>
-        </is>
-      </c>
+          <t>ExpressRoute グローバル リーチは、プライマリとセカンダリの Azure VMware ソリューション プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングが行われますか?</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4555,17 +3968,13 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H77" s="15" t="n"/>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1354b87-e18e-bf5c-c50b-8ddf0540e971</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4576,24 +3985,20 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>East West (Azure の内部)</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>AVS ワークロード間の E/W ではなく、ファイアウォール経由で Azure から Azure へのトラフィックをルーティングする決定 (AVS の内部)</t>
-        </is>
-      </c>
+          <t>MABSをバックアップソリューションとして使用する</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4605,17 +4010,13 @@
         </is>
       </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H78" s="15" t="n"/>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>29a8a499-ec31-f336-3266-0895f035e379</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4626,24 +4027,20 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>グローバルリーチのないExR</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Azure Route サーバーを使用したサードパーティの NVA が必要 - シナリオ 2 (リンクを参照)</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューション プライベート クラウドと同じリージョンにバックアップ ソリューションをデプロイする</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4655,17 +4052,13 @@
         </is>
       </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H79" s="15" t="n"/>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>ebd3cc3c-ac3d-4293-950d-cecd8445a523</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4676,24 +4069,20 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>ハブ&amp;スポーク</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>ルートサーバー</t>
-        </is>
-      </c>
-      <c r="D80" s="21" t="inlineStr">
-        <is>
-          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 200 を超えないようにしてください (ARS 制限)。MoN を使用する際の重要事項</t>
-        </is>
-      </c>
+          <t>できれば、MABS をネイティブの Azure IaaS として SDDC の外部にデプロイします</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4705,17 +4094,13 @@
         </is>
       </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/route-server/route-server-faq</t>
-        </is>
-      </c>
+      <c r="H80" s="15" t="n"/>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ffb5c5ca-bd89-ff1b-8b73-8a54d503d506</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4726,27 +4111,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>出力ポイント</t>
-        </is>
-      </c>
-      <c r="D81" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミス経由、AZファイアウォール、サードパーティ、NSX-TパブリックIP</t>
-        </is>
-      </c>
+          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは整っていますか?</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4755,17 +4136,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-design-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a4070dad-3def-818d-e9f7-be440d10e7de</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>展開戦略</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>インターネットに接続するアプリケーション</t>
-        </is>
-      </c>
-      <c r="D82" s="21" t="inlineStr">
-        <is>
-          <t>Az Firewall, 3rd party NVA, Application Gateway, Azure Frontdoor</t>
-        </is>
-      </c>
+          <t>手動デプロイの場合は、すべての構成とデプロイを文書化する必要があります</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4805,17 +4178,13 @@
         </is>
       </c>
       <c r="G82" s="21" t="n"/>
-      <c r="H82" s="15" t="inlineStr">
-        <is>
-          <t>Research and choose optimal solution for each application</t>
-        </is>
-      </c>
+      <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e942c03d-beaa-3d9f-0526-9b26cd5e9937</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ルーティング</t>
+          <t>展開戦略</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>ルートサーバーのルート制限はいつ理解されましたか?</t>
-        </is>
-      </c>
-      <c r="D83" s="21" t="inlineStr">
-        <is>
-          <t>ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 200 を超えないようにします (ARS 制限)。MoN を使用する際の重要事項</t>
-        </is>
-      </c>
+          <t>手動デプロイの場合は、Azure VMware ソリューション プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックを実装することを検討してください</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4855,17 +4220,13 @@
         </is>
       </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/route-server/route-server-faq#route-server-limits</t>
-        </is>
-      </c>
+      <c r="H83" s="15" t="n"/>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e778a2ec-b4d7-1d27-574c-14476b167d37</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4237,23 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>自動デプロイ</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>DDoS は公開 IP アドレスの標準保護ですか?</t>
-        </is>
-      </c>
-      <c r="D84" s="21" t="inlineStr">
-        <is>
-          <t>(VPN Gateway、AppGW、FrontDoor、Load Balancer、VM (など) (削除: Azure の ExR/VPN Gateway サブネットで有効)</t>
-        </is>
-      </c>
+          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4905,17 +4262,13 @@
         </is>
       </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/ddos-protection/manage-ddos-protection</t>
-        </is>
-      </c>
+      <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>66c97b30-81b9-139a-cc76-dd1d94aef42a</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,27 +4279,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>自動デプロイ</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>専用の特権アクセス ワークステーション (PAW) を使用する</t>
-        </is>
-      </c>
-      <c r="D85" s="21" t="inlineStr">
-        <is>
-          <t>Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理するには</t>
-        </is>
-      </c>
+          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4955,17 +4304,13 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="inlineStr">
-        <is>
-          <t>Best practice: Bastion or 3rd party tool</t>
-        </is>
-      </c>
+      <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d43da920-4ecc-a4e9-dd45-a2986ce81d32</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4321,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>トラフィック検査</t>
+          <t>自動デプロイ</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>東西 (AVS 内部)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>VMware間トラフィック検査にNSX-Tを使用</t>
-        </is>
-      </c>
+          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を通じて関連するリソース ロックが作成されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5005,17 +4346,13 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/administration/GUID-F6685367-7AA1-4771-927E-ED77727CFDA3.html</t>
-        </is>
-      </c>
+      <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>a2dac74f-5380-6e39-25e6-f13b99ece51f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,27 +4363,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>自動接続</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>セキュアハブ(Azureファイアウォールまたはサードパーティ)を使用する</t>
-        </is>
-      </c>
-      <c r="D87" s="21" t="inlineStr">
-        <is>
-          <t>E/Wおよびインターネットトラフィックにセキュアハブを使用するかどうかの決定:グローバルリーチが必要</t>
-        </is>
-      </c>
+          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにする</t>
+        </is>
+      </c>
+      <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5055,17 +4388,13 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
+      <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>3f621543-dfac-c471-54a6-7b2849b6909a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +4405,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>自動接続</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>East West (Azure の内部)</t>
-        </is>
-      </c>
-      <c r="D88" s="21" t="inlineStr">
-        <is>
-          <t>AVS ワークロード間の E/W ではなく、ファイアウォール経由で Azure から Azure へのトラフィックをルーティングする決定 (AVS の内部)</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションと ExpressRoute のデプロイに別々のサービス プリンシパルが使用されている場合は、キー コンテナーを使用してシークレットと承認キーを格納する</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5105,17 +4430,13 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/secure-cloud-network</t>
-        </is>
-      </c>
+      <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>d7af5670-1b39-d95d-6da2-8d660dfbe16b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +4447,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>自動スケール</t>
+          <t>自動接続</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>スケールアウト運用計画</t>
-        </is>
-      </c>
-      <c r="D89" s="21" t="inlineStr">
-        <is>
-          <t>自動スケールアウトを使用する場合は、Azure VMware ソリューションを実行しているサブスクリプションに対して十分な Azure VMware ソリューション クォータを申請してください。</t>
-        </is>
-      </c>
+          <t>Azure VMware ソリューションでは限られた数の並列操作しかサポートされないため、Azure VMware ソリューション内または Azure VMware ソリューション上に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+        </is>
+      </c>
+      <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5155,17 +4472,13 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-nsx-network-components-azure-portal</t>
-        </is>
-      </c>
+      <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>7d049005-eb35-4a93-50a5-3b31a9f61161</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +4489,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>自動スケール</t>
+          <t>自動接続</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>運用計画の拡張</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="inlineStr">
-        <is>
-          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージポリシーの要件を必ず考慮してください。</t>
-        </is>
-      </c>
+          <t>単一のレベル 1 ゲートウェイを使用して NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5205,17 +4514,13 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H90" s="15" t="n"/>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>7242c1de-da37-27f3-1ddd-565ccccb8ece</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,7 +4531,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5236,14 +4541,10 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>シリアル化された運用計画のスケーリング</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>一度に実行できるスケール操作は1つだけであるため、スケーリング操作は常に単一のSDDC内でシリアル化する必要があります(複数のクラスタが使用されている場合でも)</t>
-        </is>
-      </c>
+          <t>自動スケールアウトを使用する場合は、Azure VMware ソリューションを実行しているサブスクリプションに対して十分な Azure VMware ソリューション クォータを申請してください</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5255,17 +4556,13 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3233e49e-62ce-97f3-8737-8230e771b694</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,7 +4573,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5286,14 +4583,10 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>RD 運用計画のスケーリング</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>アーキテクチャで使用される3rdパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
-        </is>
-      </c>
+          <t>自動スケールインを使用する場合は、このようなアクションを実行する前に、ストレージ ポリシーの要件を考慮してください</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5305,17 +4598,13 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="inlineStr">
-        <is>
-          <t>Best practice (testing)</t>
-        </is>
-      </c>
+      <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>68161d66-5707-319b-e77d-9217da892593</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,7 +4615,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5336,14 +4625,10 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>最大運用計画の拡張</t>
-        </is>
-      </c>
-      <c r="D93" s="21" t="inlineStr">
-        <is>
-          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
-        </is>
-      </c>
+          <t>一度に実行できるスケール操作は1つだけであるため、スケーリング操作は常に単一のSDDC内でシリアル化する必要があります(複数のクラスタを使用している場合でも)</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5355,17 +4640,13 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="inlineStr">
-        <is>
-          <t>Operational planning - understand workload requirements</t>
-        </is>
-      </c>
+      <c r="H93" s="15" t="n"/>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c32cb953-e860-f204-957a-c79d61202669</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,7 +4657,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5386,14 +4667,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>スケーリング操作のモニタリング</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>モニタリングルールを実装して、自動スケーリングオペレーションをモニタリングし、成功と失敗を監視して適切な(自動化された)レスポンスを有効にする</t>
-        </is>
-      </c>
+          <t>アーキテクチャで使用される3rdパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5405,17 +4682,13 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-management-and-monitoring</t>
-        </is>
-      </c>
+      <c r="H94" s="15" t="n"/>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7bd65a5e-7b5d-652d-dbea-fc6f73a42857</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,24 +4699,20 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>プライベート リンク</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>他の Azure ネイティブ サービスを使用する場合は、Azure プライベート リンクの使用を検討してください。</t>
-        </is>
-      </c>
+          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5455,17 +4724,13 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-link-overview</t>
-        </is>
-      </c>
+      <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>95e374af-8a2a-2672-7ab7-b4a1be43ada7</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,24 +4741,20 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>その他のサービス/オペレーション</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>自動スケール</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>ヴイエムウェア VLAN のプロビジョニング</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>単一のティア 1 ゲートウェイを使用して NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API の代わりに Azure ポータル API を使用します。</t>
-        </is>
-      </c>
+          <t>自動スケーリング操作を監視し、成功と失敗を監視して適切な(自動化された)応答を有効にする監視ルールを実装します</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5505,17 +4766,13 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H96" s="15" t="n"/>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>71eff90d-5ad7-ac60-6244-2a6f7d3c51f2</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5524,1837 +4781,615 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>選択された地域</t>
-        </is>
-      </c>
-      <c r="D97" s="21" t="inlineStr">
-        <is>
-          <t>AVSはどのリージョンに展開されますか</t>
-        </is>
-      </c>
-      <c r="E97" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A97" s="21" t="n"/>
+      <c r="B97" s="21" t="n"/>
+      <c r="C97" s="21" t="n"/>
+      <c r="D97" s="21" t="n"/>
+      <c r="E97" s="21" t="n"/>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="inlineStr">
-        <is>
-          <t>04e3a2f9-83b7-968a-1044-2811811a924b</t>
-        </is>
-      </c>
+      <c r="L97" s="25" t="n"/>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B98" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>選択したリージョンに準拠したデータ所在地</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="inlineStr">
-        <is>
-          <t>規制またはコンプライアンスポリシーが機能しているか</t>
-        </is>
-      </c>
-      <c r="E98" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A98" s="21" t="n"/>
+      <c r="B98" s="21" t="n"/>
+      <c r="C98" s="21" t="n"/>
+      <c r="D98" s="21" t="n"/>
+      <c r="E98" s="21" t="n"/>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="inlineStr">
-        <is>
-          <t>Internal policy or regulatory compliance</t>
-        </is>
-      </c>
+      <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="inlineStr">
-        <is>
-          <t>e52d1615-9cc6-565c-deb6-743ed7e90f4b</t>
-        </is>
-      </c>
+      <c r="L98" s="25" t="n"/>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C99" s="21" t="inlineStr">
-        <is>
-          <t>送信されたAVSホスト数の要求</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>サポート ブレードからの要求</t>
-        </is>
-      </c>
-      <c r="E99" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A99" s="21" t="n"/>
+      <c r="B99" s="21" t="n"/>
+      <c r="C99" s="21" t="n"/>
+      <c r="D99" s="21" t="n"/>
+      <c r="E99" s="21" t="n"/>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/concepts-azure-vmware-solution-assessment-calculation</t>
-        </is>
-      </c>
+      <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="inlineStr">
-        <is>
-          <t>92bd5ad6-441f-a983-7aa9-05dd669d760b</t>
-        </is>
-      </c>
+      <c r="L99" s="25" t="n"/>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B100" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C100" s="21" t="inlineStr">
-        <is>
-          <t>承認された AVS ノードのリージョンと数</t>
-        </is>
-      </c>
-      <c r="D100" s="21" t="inlineStr">
-        <is>
-          <t>展開のための PG 承認</t>
-        </is>
-      </c>
-      <c r="E100" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A100" s="21" t="n"/>
+      <c r="B100" s="21" t="n"/>
+      <c r="C100" s="21" t="n"/>
+      <c r="D100" s="21" t="n"/>
+      <c r="E100" s="21" t="n"/>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="inlineStr">
-        <is>
-          <t>Support request through portal or get help from Account Team</t>
-        </is>
-      </c>
+      <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="inlineStr">
-        <is>
-          <t>28370f63-1cb8-2e35-907f-c5516b6954fa</t>
-        </is>
-      </c>
+      <c r="L100" s="25" t="n"/>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C101" s="21" t="inlineStr">
-        <is>
-          <t>登録済み AVS のリソース プロバイダー</t>
-        </is>
-      </c>
-      <c r="D101" s="21" t="inlineStr">
-        <is>
-          <t>Portal/subscription/resource providers/ Microsoft.AVS</t>
-        </is>
-      </c>
-      <c r="E101" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A101" s="21" t="n"/>
+      <c r="B101" s="21" t="n"/>
+      <c r="C101" s="21" t="n"/>
+      <c r="D101" s="21" t="n"/>
+      <c r="E101" s="21" t="n"/>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>Done through the subscription/resource providers/ AVS  register in the portal</t>
-        </is>
-      </c>
+      <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="inlineStr">
-        <is>
-          <t>96c76997-30a6-bb92-024d-f4f93f5f57fa</t>
-        </is>
-      </c>
+      <c r="L101" s="25" t="n"/>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B102" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C102" s="21" t="inlineStr">
-        <is>
-          <t>ランディング ゾーンのアーキテクチャ</t>
-        </is>
-      </c>
-      <c r="D102" s="21" t="inlineStr">
-        <is>
-          <t>Connectivity, subscription &amp; governanace model</t>
-        </is>
-      </c>
-      <c r="E102" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A102" s="21" t="n"/>
+      <c r="B102" s="21" t="n"/>
+      <c r="C102" s="21" t="n"/>
+      <c r="D102" s="21" t="n"/>
+      <c r="E102" s="21" t="n"/>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/enterprise-scale-landing-zone</t>
-        </is>
-      </c>
+      <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="inlineStr">
-        <is>
-          <t>5898e3ff-5e6b-bee1-6f85-22fee261ce63</t>
-        </is>
-      </c>
+      <c r="L102" s="25" t="n"/>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C103" s="21" t="inlineStr">
-        <is>
-          <t>選択されたリソース グループ名</t>
-        </is>
-      </c>
-      <c r="D103" s="21" t="inlineStr">
-        <is>
-          <t>AVS が存在する RG の名前</t>
-        </is>
-      </c>
-      <c r="E103" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A103" s="21" t="n"/>
+      <c r="B103" s="21" t="n"/>
+      <c r="C103" s="21" t="n"/>
+      <c r="D103" s="21" t="n"/>
+      <c r="E103" s="21" t="n"/>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/manage-resource-groups-portal</t>
-        </is>
-      </c>
+      <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="inlineStr">
-        <is>
-          <t>d0181fb8-9cb8-bf4b-f5e5-b5f9bf7ae4ea</t>
-        </is>
-      </c>
+      <c r="L103" s="25" t="n"/>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C104" s="21" t="inlineStr">
-        <is>
-          <t>展開プレフィックスが選択されました</t>
-        </is>
-      </c>
-      <c r="D104" s="21" t="inlineStr">
-        <is>
-          <t>デプロイの一部として作成された各リソースも、名前にこのプレフィックスを使用します</t>
-        </is>
-      </c>
-      <c r="E104" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A104" s="21" t="n"/>
+      <c r="B104" s="21" t="n"/>
+      <c r="C104" s="21" t="n"/>
+      <c r="D104" s="21" t="n"/>
+      <c r="E104" s="21" t="n"/>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="inlineStr">
-        <is>
-          <t>Best practice - naming standards</t>
-        </is>
-      </c>
+      <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="inlineStr">
-        <is>
-          <t>0f0d20c2-5a19-726c-de20-0984e070d9d6</t>
-        </is>
-      </c>
+      <c r="L104" s="25" t="n"/>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C105" s="21" t="inlineStr">
-        <is>
-          <t>AVS管理レイヤーのネットワークスペース</t>
-        </is>
-      </c>
-      <c r="D105" s="21" t="inlineStr">
-        <is>
-          <t>重複しない一意の IPv4 アドレス空間/22</t>
-        </is>
-      </c>
-      <c r="E105" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A105" s="21" t="n"/>
+      <c r="B105" s="21" t="n"/>
+      <c r="C105" s="21" t="n"/>
+      <c r="D105" s="21" t="n"/>
+      <c r="E105" s="21" t="n"/>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-network-checklist#routing-and-subnet-considerations</t>
-        </is>
-      </c>
+      <c r="H105" s="15" t="n"/>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="inlineStr">
-        <is>
-          <t>7fbf2ab7-a36c-5957-c27a-67038557af2a</t>
-        </is>
-      </c>
+      <c r="L105" s="25" t="n"/>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C106" s="21" t="inlineStr">
-        <is>
-          <t>AVS NSX-T セグメントのネットワーク空間</t>
-        </is>
-      </c>
-      <c r="D106" s="21" t="inlineStr">
-        <is>
-          <t>AVS で実行されているワークロードで使用される vNet(非ストレッチ)</t>
-        </is>
-      </c>
-      <c r="E106" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A106" s="21" t="n"/>
+      <c r="B106" s="21" t="n"/>
+      <c r="C106" s="21" t="n"/>
+      <c r="D106" s="21" t="n"/>
+      <c r="E106" s="21" t="n"/>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/installation/GUID-4B3860B8-1883-48CA-B2F3-7C2205D91D6D.html</t>
-        </is>
-      </c>
+      <c r="H106" s="15" t="n"/>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="inlineStr">
-        <is>
-          <t>0c87f999-e517-21ef-f355-f210ad4134d2</t>
-        </is>
-      </c>
+      <c r="L106" s="25" t="n"/>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>AVS SKU (リージョンによって異なります)</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="inlineStr">
-        <is>
-          <t>AV36、AV36P、AV52、AV36Tを選択してください(AV36T =トライアル)</t>
-        </is>
-      </c>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A107" s="21" t="n"/>
+      <c r="B107" s="21" t="n"/>
+      <c r="C107" s="21" t="n"/>
+      <c r="D107" s="21" t="n"/>
+      <c r="E107" s="21" t="n"/>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-us/pricing/details/azure-vmware/</t>
-        </is>
-      </c>
+      <c r="H107" s="15" t="n"/>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="inlineStr">
-        <is>
-          <t>946c8966-f902-6f53-4f37-00847e8895c2</t>
-        </is>
-      </c>
+      <c r="L107" s="25" t="n"/>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C108" s="21" t="inlineStr">
-        <is>
-          <t>導入するホストの数</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Azure 移行評価ツールを使用して、必要なノードの最小数を決定します (BCDR も考慮してください)。</t>
-        </is>
-      </c>
-      <c r="E108" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A108" s="21" t="n"/>
+      <c r="B108" s="21" t="n"/>
+      <c r="C108" s="21" t="n"/>
+      <c r="D108" s="21" t="n"/>
+      <c r="E108" s="21" t="n"/>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/how-to-assess</t>
-        </is>
-      </c>
+      <c r="H108" s="15" t="n"/>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="inlineStr">
-        <is>
-          <t>31833808-26ba-9c31-416f-d54a89a17f5d</t>
-        </is>
-      </c>
+      <c r="L108" s="25" t="n"/>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B109" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C109" s="21" t="inlineStr">
-        <is>
-          <t>リザーブされたインスタンス</t>
-        </is>
-      </c>
-      <c r="D109" s="21" t="inlineStr">
-        <is>
-          <t>リザーブドインスタンスを使用する方法と使用するかどうかを理解する (コスト管理)</t>
-        </is>
-      </c>
-      <c r="E109" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A109" s="21" t="n"/>
+      <c r="B109" s="21" t="n"/>
+      <c r="C109" s="21" t="n"/>
+      <c r="D109" s="21" t="n"/>
+      <c r="E109" s="21" t="n"/>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-ca/pricing/details/azure-vmware/#:~:text=Azure%20VMware%20Solution%20%20%20%20Instance%20size,TB%20%28all%20NVMe%29%20%20%20N%2FA%20%2Fhour%20</t>
-        </is>
-      </c>
+      <c r="H109" s="15" t="n"/>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="inlineStr">
-        <is>
-          <t>f2b73c4f-3d46-32c9-5df1-5b8dfcd3947f</t>
-        </is>
-      </c>
+      <c r="L109" s="25" t="n"/>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B110" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C110" s="21" t="inlineStr">
-        <is>
-          <t>能力</t>
-        </is>
-      </c>
-      <c r="D110" s="21" t="inlineStr">
-        <is>
-          <t>十分なクォータを要求し、拡張と災害復旧の要件を考慮していることを確認します</t>
-        </is>
-      </c>
-      <c r="E110" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A110" s="21" t="n"/>
+      <c r="B110" s="21" t="n"/>
+      <c r="C110" s="21" t="n"/>
+      <c r="D110" s="21" t="n"/>
+      <c r="E110" s="21" t="n"/>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="inlineStr">
-        <is>
-          <t>94ac48ab-ade5-3fa7-f800-263feeb97070</t>
-        </is>
-      </c>
+      <c r="L110" s="25" t="n"/>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B111" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーキングとコネクティビティ scenrario 1 から 5 までを説明するドキュメントを参照してください。</t>
-        </is>
-      </c>
-      <c r="D111" s="21" t="inlineStr">
-        <is>
-          <t>どのネットワークシナリオが</t>
-        </is>
-      </c>
-      <c r="E111" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A111" s="21" t="n"/>
+      <c r="B111" s="21" t="n"/>
+      <c r="C111" s="21" t="n"/>
+      <c r="D111" s="21" t="n"/>
+      <c r="E111" s="21" t="n"/>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H111" s="15" t="n"/>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="inlineStr">
-        <is>
-          <t>1f9d4bd5-14b8-928c-b4cb-eb211f9b8de5</t>
-        </is>
-      </c>
+      <c r="L111" s="25" t="n"/>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="inlineStr">
-        <is>
-          <t>企画</t>
-        </is>
-      </c>
-      <c r="B112" s="21" t="inlineStr">
-        <is>
-          <t>展開前</t>
-        </is>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t>サードパーティアプリケーションの互換性</t>
-        </is>
-      </c>
-      <c r="D112" s="21" t="inlineStr">
-        <is>
-          <t>ESXi へのアクセス制約を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認します。</t>
-        </is>
-      </c>
-      <c r="E112" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="21" t="n"/>
+      <c r="C112" s="21" t="n"/>
+      <c r="D112" s="21" t="n"/>
+      <c r="E112" s="21" t="n"/>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="inlineStr">
-        <is>
-          <t>Please Check Partner Ecosystem</t>
-        </is>
-      </c>
+      <c r="H112" s="15" t="n"/>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="inlineStr">
-        <is>
-          <t>070db19b-8a2a-fd6a-c39b-4488d8780da9</t>
-        </is>
-      </c>
+      <c r="L112" s="25" t="n"/>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B113" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t>高度な脅威検出を有効にする</t>
-        </is>
-      </c>
-      <c r="D113" s="21" t="inlineStr">
-        <is>
-          <t>MS Defender For Cloud, for ワークロード on Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="E113" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="21" t="n"/>
+      <c r="C113" s="21" t="n"/>
+      <c r="D113" s="21" t="n"/>
+      <c r="E113" s="21" t="n"/>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/azure-security-integration#prerequisites</t>
-        </is>
-      </c>
+      <c r="H113" s="15" t="n"/>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="inlineStr">
-        <is>
-          <t>f42b0b09-c591-238a-1580-2de3c485ebd2</t>
-        </is>
-      </c>
+      <c r="L113" s="25" t="n"/>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B114" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>ポリシーと規制の遵守</t>
-        </is>
-      </c>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>適用可能なポリシーが有効になっているか (コンプライアンス ベースラインが MDfC に追加されている)</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="21" t="n"/>
+      <c r="C114" s="21" t="n"/>
+      <c r="D114" s="21" t="n"/>
+      <c r="E114" s="21" t="n"/>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/azure-security-integration</t>
-        </is>
-      </c>
+      <c r="H114" s="15" t="n"/>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="inlineStr">
-        <is>
-          <t>bcdd2348-3d0e-c6bb-1092-aa4cd1a66d6b</t>
-        </is>
-      </c>
+      <c r="L114" s="25" t="n"/>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B115" s="21" t="inlineStr">
-        <is>
-          <t>ファイアウォール</t>
-        </is>
-      </c>
-      <c r="C115" s="21" t="inlineStr">
-        <is>
-          <t>Azure / 3rd パーティ製ファイアウォール</t>
-        </is>
-      </c>
-      <c r="D115" s="21" t="inlineStr">
-        <is>
-          <t>Azure to Azure (E/W), Azure to On-premises), AVS to Internet, AVS to Azure</t>
-        </is>
-      </c>
-      <c r="E115" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="21" t="n"/>
+      <c r="C115" s="21" t="n"/>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="21" t="n"/>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-migration-and/firewall-integration-in-azure-vmware-solution/ba-p/2254961#:~:text=Azure%20VMware%20Solution%20customers%20have%20multiple%20security%20options,the%20box%20to%20provide%20East-West%20and%20North-South%20firewalling.</t>
-        </is>
-      </c>
+      <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="inlineStr">
-        <is>
-          <t>607c1ca9-da92-ae19-5a4c-eb1e876acbe7</t>
-        </is>
-      </c>
+      <c r="L115" s="25" t="n"/>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B116" s="21" t="inlineStr">
-        <is>
-          <t>ファイアウォール</t>
-        </is>
-      </c>
-      <c r="C116" s="21" t="inlineStr">
-        <is>
-          <t>ファイアウォールはAVS内の東/西トラフィックを許可します</t>
-        </is>
-      </c>
-      <c r="D116" s="21" t="inlineStr">
-        <is>
-          <t>HCXアプライアンスの接続/同期を許可するには</t>
-        </is>
-      </c>
-      <c r="E116" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="21" t="n"/>
+      <c r="C116" s="21" t="n"/>
+      <c r="D116" s="21" t="n"/>
+      <c r="E116" s="21" t="n"/>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-Cloud-on-AWS/services/com.vmware.vmc-aws-networking-security/GUID-2CFE1654-9CC9-4EDB-A625-21317299E559.html</t>
-        </is>
-      </c>
+      <c r="H116" s="15" t="n"/>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="inlineStr">
-        <is>
-          <t>1d87925c-c02b-7fde-a425-7e95ad846a27</t>
-        </is>
-      </c>
+      <c r="L116" s="25" t="n"/>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B117" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーキング</t>
-        </is>
-      </c>
-      <c r="C117" s="21" t="inlineStr">
-        <is>
-          <t>HCX および/または SRM</t>
-        </is>
-      </c>
-      <c r="D117" s="21" t="inlineStr">
-        <is>
-          <t>使用するツールの決定(SRMには追加のライセンスが必要 - 自動化とその他の機能を有効にする)</t>
-        </is>
-      </c>
-      <c r="E117" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="21" t="n"/>
+      <c r="C117" s="21" t="n"/>
+      <c r="D117" s="21" t="n"/>
+      <c r="E117" s="21" t="n"/>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-B842696B-89EF-4183-9C73-B77157F56055.html</t>
-        </is>
-      </c>
+      <c r="H117" s="15" t="n"/>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="inlineStr">
-        <is>
-          <t>468b3495-2f6e-b65a-38ef-3ba631bcaa46</t>
-        </is>
-      </c>
+      <c r="L117" s="25" t="n"/>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーキング</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>HCXインターコネクトの構成および管理</t>
-        </is>
-      </c>
-      <c r="D118" s="21" t="inlineStr">
-        <is>
-          <t>サービス・メッシュ要件の要件とHCXの仕組みについてお読みください</t>
-        </is>
-      </c>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
+      <c r="D118" s="21" t="n"/>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.6/hcx-user-guide/GUID-76BCD059-A31A-4041-9105-ACFB56213E7C.html</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>be2ced52-da08-d366-cf7c-044c19e29509</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーキング</t>
-        </is>
-      </c>
-      <c r="C119" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーク拡張機能の制約事項と制限</t>
-        </is>
-      </c>
-      <c r="D119" s="21" t="inlineStr">
-        <is>
-          <t>ストレッチ ネットワークの使用を計画している場合は、オンプレミス環境の要件を確認してください。</t>
-        </is>
-      </c>
-      <c r="E119" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="21" t="n"/>
+      <c r="C119" s="21" t="n"/>
+      <c r="D119" s="21" t="n"/>
+      <c r="E119" s="21" t="n"/>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-DBDB4D1B-60B6-4D16-936B-4AC632606909.html</t>
-        </is>
-      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="inlineStr">
-        <is>
-          <t>7dcac579-fc5c-5c9c-f1f7-9b1149ff2c37</t>
-        </is>
-      </c>
+      <c r="L119" s="25" t="n"/>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>ネットワーキング</t>
-        </is>
-      </c>
-      <c r="C120" s="21" t="inlineStr">
-        <is>
-          <t>モビリティ最適化ネットワーキング</t>
-        </is>
-      </c>
-      <c r="D120" s="21" t="inlineStr">
-        <is>
-          <t>ワークロードには MoN が必要ですか?</t>
-        </is>
-      </c>
-      <c r="E120" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A120" s="21" t="n"/>
+      <c r="B120" s="21" t="n"/>
+      <c r="C120" s="21" t="n"/>
+      <c r="D120" s="21" t="n"/>
+      <c r="E120" s="21" t="n"/>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/vmware-hcx-mon-guidance</t>
-        </is>
-      </c>
+      <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="inlineStr">
-        <is>
-          <t>cf45c0b9-6c4b-3bfb-86c5-62fe54061c73</t>
-        </is>
-      </c>
+      <c r="L120" s="25" t="n"/>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスの前提条件</t>
-        </is>
-      </c>
-      <c r="C121" s="21" t="inlineStr">
-        <is>
-          <t>サポートマトリックス(OSバージョンなど)。</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア環境のオペレーティング・システム・レベル</t>
-        </is>
-      </c>
-      <c r="E121" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A121" s="21" t="n"/>
+      <c r="B121" s="21" t="n"/>
+      <c r="C121" s="21" t="n"/>
+      <c r="D121" s="21" t="n"/>
+      <c r="E121" s="21" t="n"/>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/site-recovery/vmware-physical-azure-support-matrix</t>
-        </is>
-      </c>
+      <c r="H121" s="15" t="n"/>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="inlineStr">
-        <is>
-          <t>b7cf11f3-b12e-5189-991a-06df5250d2ca</t>
-        </is>
-      </c>
+      <c r="L121" s="25" t="n"/>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B122" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスの前提条件</t>
-        </is>
-      </c>
-      <c r="C122" s="21" t="inlineStr">
-        <is>
-          <t>標準スイッチをダイナミックスイッチに変換</t>
-        </is>
-      </c>
-      <c r="D122" s="21" t="inlineStr">
-        <is>
-          <t>すべてのスイッチが動的であることが必要</t>
-        </is>
-      </c>
-      <c r="E122" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A122" s="21" t="n"/>
+      <c r="B122" s="21" t="n"/>
+      <c r="C122" s="21" t="n"/>
+      <c r="D122" s="21" t="n"/>
+      <c r="E122" s="21" t="n"/>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/vsan-network-design-guide/GUID-91E1CD6F-33A6-4AC6-BC22-3E4807296F86.html#:~:text=Migrate%20Management%20Network%201%20Add%20hosts%20to%20the,each%20host.%20...%204%20Finish%20the%20configuration.%20</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="inlineStr">
-        <is>
-          <t>45fe9252-aa1b-4e30-45c6-bc02f3b76acf</t>
-        </is>
-      </c>
+      <c r="L122" s="25" t="n"/>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B123" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスの前提条件</t>
-        </is>
-      </c>
-      <c r="C123" s="21" t="inlineStr">
-        <is>
-          <t>HCXアプライアンスの容量</t>
-        </is>
-      </c>
-      <c r="D123" s="21" t="inlineStr">
-        <is>
-          <t>リンクのサイズと容量に関するセクションを参照してください。</t>
-        </is>
-      </c>
-      <c r="E123" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A123" s="21" t="n"/>
+      <c r="B123" s="21" t="n"/>
+      <c r="C123" s="21" t="n"/>
+      <c r="D123" s="21" t="n"/>
+      <c r="E123" s="21" t="n"/>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/plan-private-cloud-deployment</t>
-        </is>
-      </c>
+      <c r="H123" s="15" t="n"/>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="inlineStr">
-        <is>
-          <t>e9f6d736-ee44-e2ac-e7f9-e361f8c857f3</t>
-        </is>
-      </c>
+      <c r="L123" s="25" t="n"/>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B124" s="21" t="inlineStr">
-        <is>
-          <t>オンプレミスの前提条件</t>
-        </is>
-      </c>
-      <c r="C124" s="21" t="inlineStr">
-        <is>
-          <t>ハードウェアの互換性</t>
-        </is>
-      </c>
-      <c r="D124" s="21" t="inlineStr">
-        <is>
-          <t>ハードウェアの制限を確認して、AVS/OSとの互換性を確認してください</t>
-        </is>
-      </c>
-      <c r="E124" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A124" s="21" t="n"/>
+      <c r="B124" s="21" t="n"/>
+      <c r="C124" s="21" t="n"/>
+      <c r="D124" s="21" t="n"/>
+      <c r="E124" s="21" t="n"/>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="inlineStr">
-        <is>
-          <t>https://kb.vmware.com/s/article/2007240#:~:text=ESXi%2FESX%20hosts%20and%20compatible%20virtual%20machine%20hardware%20versions,%20Not%20Supported%20%204%20more%20rows</t>
-        </is>
-      </c>
+      <c r="H124" s="15" t="n"/>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="inlineStr">
-        <is>
-          <t>1be2cdd6-15a7-9a33-aea7-113859035ce9</t>
-        </is>
-      </c>
+      <c r="L124" s="25" t="n"/>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B125" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C125" s="21" t="inlineStr">
-        <is>
-          <t>VSAN RDM ディスクが変換される - サポートされていません。</t>
-        </is>
-      </c>
-      <c r="D125" s="21" t="inlineStr">
-        <is>
-          <t>変換する必要があります</t>
-        </is>
-      </c>
-      <c r="E125" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A125" s="21" t="n"/>
+      <c r="B125" s="21" t="n"/>
+      <c r="C125" s="21" t="n"/>
+      <c r="D125" s="21" t="n"/>
+      <c r="E125" s="21" t="n"/>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/com.vmware.vsphere.storage.doc/GUID-01D3CF47-A84A-4988-8103-A0487D6441AA.html</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="inlineStr">
-        <is>
-          <t>16ab821a-27c6-b6d3-6042-10dc4d6dfcb7</t>
-        </is>
-      </c>
+      <c r="L125" s="25" t="n"/>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B126" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C126" s="21" t="inlineStr">
-        <is>
-          <t>SCSI 共有バスを使用する VM はサポートされていません</t>
-        </is>
-      </c>
-      <c r="D126" s="21" t="inlineStr">
-        <is>
-          <t>変換する必要があります</t>
-        </is>
-      </c>
-      <c r="E126" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A126" s="21" t="n"/>
+      <c r="B126" s="21" t="n"/>
+      <c r="C126" s="21" t="n"/>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="21" t="n"/>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="inlineStr">
-        <is>
-          <t>3rd-Party tools</t>
-        </is>
-      </c>
+      <c r="H126" s="15" t="n"/>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="inlineStr">
-        <is>
-          <t>eb2f9313-afb2-ab35-aa24-6d97a3cb0611</t>
-        </is>
-      </c>
+      <c r="L126" s="25" t="n"/>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B127" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C127" s="21" t="inlineStr">
-        <is>
-          <t>ダイレクト IO を使用する VM では、ダイレクトパス デバイスを削除する必要があります</t>
-        </is>
-      </c>
-      <c r="D127" s="21" t="inlineStr">
-        <is>
-          <t>移行前に直接 IO を削除する</t>
-        </is>
-      </c>
-      <c r="E127" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A127" s="21" t="n"/>
+      <c r="B127" s="21" t="n"/>
+      <c r="C127" s="21" t="n"/>
+      <c r="D127" s="21" t="n"/>
+      <c r="E127" s="21" t="n"/>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="inlineStr">
-        <is>
-          <t>3f2a5cff-c8a6-634a-1f1b-53ef9d321381</t>
-        </is>
-      </c>
+      <c r="L127" s="25" t="n"/>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B128" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C128" s="21" t="inlineStr">
-        <is>
-          <t>共有 VMDK ファイルはサポートされていません</t>
-        </is>
-      </c>
-      <c r="D128" s="21" t="inlineStr">
-        <is>
-          <t>クラスターを移行できない</t>
-        </is>
-      </c>
-      <c r="E128" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A128" s="21" t="n"/>
+      <c r="B128" s="21" t="n"/>
+      <c r="C128" s="21" t="n"/>
+      <c r="D128" s="21" t="n"/>
+      <c r="E128" s="21" t="n"/>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="inlineStr">
-        <is>
-          <t>efc8a311-74f8-0252-c6a0-4bac7610e266</t>
-        </is>
-      </c>
+      <c r="L128" s="25" t="n"/>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B129" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C129" s="21" t="inlineStr">
-        <is>
-          <t>「物理互換モード」の RDM はサポートされていません。</t>
-        </is>
-      </c>
-      <c r="D129" s="21" t="inlineStr">
-        <is>
-          <t>別の形式に変換する</t>
-        </is>
-      </c>
-      <c r="E129" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A129" s="21" t="n"/>
+      <c r="B129" s="21" t="n"/>
+      <c r="C129" s="21" t="n"/>
+      <c r="D129" s="21" t="n"/>
+      <c r="E129" s="21" t="n"/>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="inlineStr">
-        <is>
-          <t>ab6c89cd-a26f-b894-fe59-61863975458e</t>
-        </is>
-      </c>
+      <c r="L129" s="25" t="n"/>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B130" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C130" s="21" t="inlineStr">
-        <is>
-          <t>デフォルトのストレージポリシー</t>
-        </is>
-      </c>
-      <c r="D130" s="21" t="inlineStr">
-        <is>
-          <t>このポリシーはシックプロビジョニングを適用するため、VM の vSAN ストレージ ポリシーが既定のストレージ ポリシーではないことを確認します。</t>
-        </is>
-      </c>
-      <c r="E130" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A130" s="21" t="n"/>
+      <c r="B130" s="21" t="n"/>
+      <c r="C130" s="21" t="n"/>
+      <c r="D130" s="21" t="n"/>
+      <c r="E130" s="21" t="n"/>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="inlineStr">
-        <is>
-          <t>7628d446-6b10-9678-9cec-f407d990de43</t>
-        </is>
-      </c>
+      <c r="L130" s="25" t="n"/>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>適切な VM テンプレート ストレージ ポリシーが使用されていることを確認する</t>
-        </is>
-      </c>
-      <c r="D131" s="21" t="inlineStr">
-        <is>
-          <t>デフォルトのストレージ・ポリシーは RAID-1 (ミラーリング) FTT-1 に設定され、「オブジェクト・スペース予約」は「シン・プロビジョニング」に設定されています。</t>
-        </is>
-      </c>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
+      <c r="D131" s="21" t="n"/>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-storage-policy</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>37fef358-7ab9-43a9-542c-22673955200e</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B132" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C132" s="21" t="inlineStr">
-        <is>
-          <t>ポリシーを容認しない</t>
-        </is>
-      </c>
-      <c r="D132" s="21" t="inlineStr">
-        <is>
-          <t>vSAN ストレージのニーズを満たすために、許容できないポリシーが適用されていることを確認する</t>
-        </is>
-      </c>
-      <c r="E132" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A132" s="21" t="n"/>
+      <c r="B132" s="21" t="n"/>
+      <c r="C132" s="21" t="n"/>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="21" t="n"/>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="inlineStr">
-        <is>
-          <t>ebebd109-9f9d-d85e-1b2f-d302012843b7</t>
-        </is>
-      </c>
+      <c r="L132" s="25" t="n"/>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="inlineStr">
-        <is>
-          <t>ヴイエムウェア</t>
-        </is>
-      </c>
-      <c r="B133" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C133" s="21" t="inlineStr">
-        <is>
-          <t>外部ストレージにANFを使用する</t>
-        </is>
-      </c>
-      <c r="D133" s="21" t="inlineStr">
-        <is>
-          <t>ANF を使用して、Azure VMware Solution のストレージを拡張できます。</t>
-        </is>
-      </c>
-      <c r="E133" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="A133" s="21" t="n"/>
+      <c r="B133" s="21" t="n"/>
+      <c r="C133" s="21" t="n"/>
+      <c r="D133" s="21" t="n"/>
+      <c r="E133" s="21" t="n"/>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/netapp-files-with-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H133" s="15" t="n"/>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="inlineStr">
-        <is>
-          <t>1be821bd-4f37-216a-3e3d-2a5ac6996863</t>
-        </is>
-      </c>
+      <c r="L133" s="25" t="n"/>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
@@ -9877,20 +7912,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9902,123 +8035,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F134" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10033,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10109,7 +8127,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>企画</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10124,7 +8142,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ確認されていません</t>
+          <t>このチェックはまだ検討されていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -10146,7 +8164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>接続</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10173,7 +8191,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10195,7 +8213,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10217,12 +8235,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在のデザインには適用できません</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -10234,28 +8252,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>モニタリング</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ティッカー</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>その他のサービス/オペレーション</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>管理</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avs_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認します</t>
+          <t>ADDS ドメイン コントローラーがネイティブ Azure の ID サブスクリプションにデプロイされていることを確認する</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure ベースのリソース (Azure VMware ソリューションを含む) からの認証要求を Azure ローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
+          <t>Azure ベースのリソース (Azure VMware Solution を含む) からの認証要求を Azure にローカルに保持するように ADDS サイトとサービスが構成されていることを確認します</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>vCenter が ADDS に接続され、「名前付きユーザ アカウント」に基づく認証が有効になっていることを確認します。</t>
+          <t>vCenterがADDに接続されていることを確認し、「名前付きユーザーアカウント」に基づく認証を有効にします</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>vCenter から ADDS への接続でセキュア プロトコル(LDAPS)が使用されていることを確認します</t>
+          <t>vCenter から ADDS への接続でセキュア プロトコル (LDAPS) が使用されていることを確認します</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>vCenter IdP のクラウド管理者アカウントは、緊急アカウント (非常用アカウント) としてのみ使用されます</t>
+          <t>vCenter IdP の CloudAdmin アカウントは、緊急アカウント(非常用アカウント)としてのみ使用されます</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>NSX-Manager が外部アイデンティティプロバイダと統合されていることを確認する</t>
+          <t>NSX-Manager が外部 ID プロバイダ (LDAPS) と統合されていることを確認します。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>VMware vSphere 内で使用するために RBAC モデルが作成されている</t>
+          <t>VMware vSphere 内で使用するために RBAC モデルが作成されているか</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure の Azure VMware ソリューション リソースに対する RBAC アクセス許可は、限られた所有者のセットにのみ "ロックダウン" されます</t>
+          <t>Azure の Azure VMware Solution リソースに対する RBAC アクセス許可は、限られた所有者のセットのみに "ロックダウン" されます</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1437,17 +1437,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>建築</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>手元のお客様のユース ケースに対して正しい Azure VMware ソリューション接続モデルが選択されているか</t>
+          <t>すべてのカスタム ロールのスコープが CloudAdmin で許可された承認で設定されていることを確認する</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1462,17 +1462,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1488,12 +1484,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>建築</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
+          <t>お客様のユース ケースに適した Azure VMware Solution 接続モデルが選択されているか</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1508,13 +1504,17 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
+        </is>
+      </c>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure VM ware ソリューション バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware ソリューション仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>オンプレミスから Azure への ExpressRoute または VPN 接続が "接続モニター" を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>エンド 2 エンド接続を監視するために、オンプレミスのリソースから Azure VMware ソリューション仮想マシンへの接続モニターが作成されていることを確認します</t>
+          <t>Azure VMware Solution バックエンドの ExpressRoute 接続を監視するために、Azure ネイティブ リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1598,7 +1598,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>ルーティング</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミス (ARS 制限) に伝達されるルートが 200 を超えないようにしてください。MoNを使用する際に重要</t>
+          <t>エンド 2 エンドの接続を監視するために、オンプレミス リソースから Azure VMware Solution 仮想マシンへの接続モニターが作成されていることを確認します</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1651,17 +1651,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ (ID)</t>
+          <t>ルーティング</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>特権 ID 管理は、Azure ポータルで Azure VMware ソリューション リソースを管理するロールに実装されていますか (永続的なアクセス許可は許可されません)</t>
+          <t>ルート サーバーを使用する場合は、ルート サーバーから ExR ゲートウェイ、オンプレミスに伝達されるルートが 1000 を超えないようにします (ARS 制限)。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>特権 ID 管理監査レポートは、Azure VMware ソリューション PIM ロールに対して実装されていますか</t>
+          <t>Azure Portal で Azure VMware Solution リソースを管理するロールに対して Privileged Identity Management が実装されていますか (永続的なアクセス許可は許可されません)</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
+          <t>Privileged Identity Management 監査レポートは、Azure VMware Solution PIM ロールに対して実装する必要がある</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>vCenter でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装する</t>
+          <t>Privileged Identity Management を使用している場合は、Azure VMware Solution のホストの自動置換通知用の有効な SMTP レコードを使用して、有効な Entra ID が有効なアカウントが作成されていることを確認します。(常任許可が必要)</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1808,7 +1808,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1829,13 +1829,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>クラウド管理者 (vCenter) と管理者 (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです</t>
+          <t>CloudAdmin アカウントの使用を緊急アクセスのみに制限する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1871,13 +1871,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションで実行されているワークロード (VM) に使用する一元化された ID プロバイダーを使用する</t>
+          <t>vCenter Server でカスタム RBAC ロールを作成して、vCenter 内に最小特権モデルを実装します</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,7 +1891,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ (ネットワーク)</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>東西トラフィックフィルタリングはNSX-T内に実装されていますか</t>
+          <t>cloudadmin (vCenter) と admin (NSX) の資格情報を定期的にローテーションするように定義されたプロセスです。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1932,7 +1932,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ (ネットワーク)</t>
+          <t>セキュリティ (ID)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューション上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure アプリケーション ゲートウェイ、Azure ファイアウォール、またはサード パーティのソリューションによってフィルター処理および検査されます</t>
+          <t>一元化された ID プロバイダーを使用して、Azure VMware Solution で実行されているワークロード (VM) に使用する</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -1973,7 +1973,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1994,13 +1994,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードに対する受信インターネット要求に対して実装されます</t>
+          <t>East-West トラフィック フィルタリングは NSX-T 内に実装されていますか</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>セッション監視は、疑わしい/悪意のあるアクティビティを識別するために、Azure VMware ソリューションまたは Azure VMware ソリューション ベースのワークロードからの送信インターネット接続に対して実装されます</t>
+          <t>Azure VMware Solution 上のワークロードは、インターネットに直接公開されません。トラフィックは、Azure Application Gateway、Azure Firewall、またはサード パーティのソリューションによってフィルター処理され、検査されます</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2055,7 +2055,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2076,13 +2076,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure の ExR/VPN ゲートウェイ サブネットで DDoS 標準保護が有効になっていますか</t>
+          <t>監査とログ記録は、Azure VMware Solution および Azure VMware Solution ベースのワークロードへの受信インターネット要求に対して実装されます</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware ソリューション、vCenter、NSX マネージャー、HCX マネージャーを管理する</t>
+          <t>セッション監視は、疑わしい/悪意のあるアクティビティを特定するために、Azure VMware Solution または Azure VMware Solution ベースのワークロードからの送信インターネット接続に実装されます</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2139,7 +2139,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ (ゲスト/VM)</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードに対して高度な脅威検出 (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
+          <t>Azure の ExR/VPN Gateway サブネットで DDoS Standard 保護が有効になっているか</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ (ゲスト/VM)</t>
+          <t>セキュリティ (ネットワーク)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
+          <t>専用の特権アクセス ワークステーション (PAW) を使用して、Azure VMware Solution、vCenter、NSX Manager、HCX Manager を管理する</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューション上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されていることを確認します。(保存時の vSAN 暗号化がデフォルトです)</t>
+          <t>Azure VMware Solution で実行されているワークロードに対して Advanced Threat Detection (Microsoft Defender for Cloud 別名 ASC) を有効にする</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2265,7 +2265,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>ゲスト内暗号化を使用する場合は、可能な場合は暗号化キーを Azure Key Vault に格納します</t>
+          <t>Azure ARC for Servers を使用して、Azure ネイティブ テクノロジを使用して Azure VMware Solution で実行されているワークロードを適切に管理します (Azure ARC for Azure VMware Solution はまだ利用できません)</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,7 +2307,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションで実行されているワークロードに対して拡張セキュリティ更新プログラムのサポートが構成されていることを確認する (Azure VMware ソリューションは ESU の対象です)</t>
+          <t>Azure VMware Solution 上のワークロードで、実行時に十分なデータ暗号化 (ゲスト内ディスク暗号化や SQL TDE など) が使用されるようにします。(保存時の vSAN 暗号化がデフォルトです)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2365,18 +2365,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>ガバナンス (プラットフォーム)</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>適切な VM テンプレート ストレージ ポリシーが使用されていることを確認します</t>
+          <t>ゲスト内暗号化を使用する場合は、可能な場合は Azure Key Vault に暗号化キーを格納します</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2407,18 +2407,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>ガバナンス (プラットフォーム)</t>
+          <t>セキュリティ (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>十分なクォータを要求し、拡張と災害復旧の要件を検討したことを確認します</t>
+          <t>Azure VMware Solution で実行されているワークロードには、拡張セキュリティ更新プログラムのサポートの使用を検討してください (Azure VMware Solution は ESU の対象です)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>vSAN ストレージのニーズを満たすために [許容できない] ポリシーが設定されていることを確認します</t>
+          <t>適切な vSAN データ冗長化方式(RAID 仕様)が使用されていることを確認します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>ESXiへのアクセス制約を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認します。</t>
+          <t>許容障害ポリシーが vSAN ストレージのニーズを満たすために設定されていることを確認します</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>ESXi ホストの密度と効率に関するポリシーがあり、新しいノードを要求するリード タイムを念頭に置いてください</t>
+          <t>十分なクォータを要求し、拡張とディザスタリカバリの要件を考慮していることを確認します</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションに対して適切なコスト管理プロセスが実施されていることを確認する - Azure コスト管理を使用できます</t>
+          <t>ESXiへのアクセス制限を理解し、サードパーティのソリューションに影響を与える可能性のあるアクセス制限があることを確認してください。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2622,13 +2622,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure 予約インスタンスは、Azure VMware ソリューションを使用するためのコストを最適化するために使用されますか</t>
+          <t>ESXi ホストの密度と効率に関するポリシーがあることを確認し、新しいノードを要求するためのリード タイムを念頭に置いてください</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2642,7 +2642,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>他の Azure ネイティブ サービスを使用する場合は、Azure プライベート リンクの使用を検討してください</t>
+          <t>Azure VMware Solution の適切なコスト管理プロセスが整っていることを確認する - Azure Cost Management を使用できます</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2700,18 +2700,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>ガバナンス (ゲスト/VM)</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud for Azure VMware Solution ゲスト VM ワークロードを有効にする</t>
+          <t>Azure VMware Solution を使用するためのコストを最適化するために Azure 予約インスタンスが使用されているか</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>ガバナンス (ゲスト/VM)</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーを使用して Azure VMware ソリューションのゲスト VM ワークロードを管理する</t>
+          <t>他の Azure Native Services を使用する場合は、Azure Private-Link の使用を検討してください</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2767,7 +2767,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>ガバナンス (ゲスト/VM)</t>
+          <t>ガバナンス (プラットフォーム)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションでの診断ログとメトリック ログを有効にする</t>
+          <t>必要なすべてのリソースが同じ Azure 可用性ゾーン内に存在することを確認する</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>ログ分析エージェントを Azure VMware ソリューションのゲスト VM ワークロードにデプロイする</t>
+          <t>Azure VMware Solution ゲスト VM ワークロードに対して Microsoft Defender for Cloud を有効にする</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューション VM ワークロード用のバックアップ ポリシーとソリューションが文書化され、実装されていることを確認する</t>
+          <t>Azure Arc 対応サーバーを使用して Azure VMware Solution ゲスト VM のワークロードを管理する</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2892,7 +2892,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2908,18 +2908,18 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンスを監視する</t>
+          <t>Azure VMware Solution での診断ログとメトリック ログを有効にするEnable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>適用可能なコンプライアンス ベースラインは、Microsoft Defender for Cloud に追加されていますか</t>
+          <t>Log Analytics エージェントを Azure VMware Solution ゲスト VM ワークロードにデプロイする</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -2975,7 +2975,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2991,18 +2991,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ガバナンス (ゲスト/VM)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されました</t>
+          <t>Azure VMware Solution VM ワークロードのバックアップ ポリシーとソリューションが文書化され、実装されていることを確認します</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>データ処理の影響(サービスプロバイダー/サービスコンシューマーモデル)は明確で文書化されていますか</t>
+          <t>Microsoft Defender for Cloud を使用して、Azure VMware Solution で実行されているワークロードのコンプライアンス監視を行う</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3058,7 +3058,7 @@
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボードを作成して、コア Azure VMware ソリューションの監視分析情報を有効にする</t>
+          <t>適用可能なコンプライアンス ベースラインは Microsoft Defender for Cloud に追加されていますか</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3099,7 +3099,7 @@
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3110,17 +3110,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大なしきい値に関する警告アラートを作成する</t>
+          <t>Azure VMware Solution のデプロイに使用する Azure リージョンを選択するときにデータ所在地が評価されましたか</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3140,7 +3140,7 @@
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3151,17 +3151,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>vSAN の消費量が 75% を下回っているかどうかを監視するために、重要なアラートが作成されていることを確認します (これは VMware のサポートしきい値です)。</t>
+          <t>データ処理への影響 (サービス プロバイダー/サービス コンシューマー モデル) が明確で文書化されているか</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3181,7 +3181,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3192,23 +3192,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>アラートが Azure サービス正常性のアラートと通知用に構成されていることを確認する</t>
+          <t>コンプライアンス上の理由で必要な場合にのみ、vSAN に CMK (カスタマー マネージド キー) を使用することを検討してください。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3243,13 +3243,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションのログ記録を、処理のために Azure ストレージ アカウントまたは Azure イベント ハブに送信するように構成する</t>
+          <t>Azure VMware Solution のコア監視分析情報を有効にするダッシュボードを作成するCreate dashboards to enable a core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3284,13 +3284,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>VMware vSphere で詳細な分析情報が必要な場合: ソリューションでは vRealize Operations や vRealize Network Insights が使用されていますか?</t>
+          <t>Azure VMware Solution のパフォーマンス (CPU &gt;80%、平均メモリ &gt;80%、vSAN &gt;70%) に関する自動アラートの重大しきい値の警告アラートを作成する</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>VM の vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、既定のストレージ ポリシーではないことを確認します</t>
+          <t>vSAN の消費量が 75% を下回っているかどうかを監視するための重要なアラートが作成されていることを確認します (これは VMware からのサポートしきい値です)。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3361,18 +3361,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
+          <t>Azure Service Health のアラートと通知に対してアラートが構成されていることを確認する</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3387,7 +3387,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされたデータストアのいずれか</t>
+          <t>処理のために Azure Storage アカウントまたは Azure EventHub に送信するように Azure VMware Solution ログを構成する</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3445,18 +3445,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが、Azure Arc for Servers を使用してハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
+          <t>VMware vSphere での詳細な分析情報が必要な場合:vRealize Operations や vRealize Network Insights がソリューションで使用されていますか?</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3492,13 +3492,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
+          <t>仮想マシンの vSAN ストレージ ポリシーはシック プロビジョニングを適用するため、このポリシーがデフォルトのストレージ ポリシーではないことを確認します</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3512,7 +3512,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションで実行されているワークロードを既存の更新管理ツールまたは Azure Update Management に含める</t>
+          <t>vSAN は有限のリソースであるため、vSphere コンテンツ ライブラリが vSAN に配置されていないことを確認する</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、Azure の管理、監視、およびセキュリティ ソリューションで Azure VMware ソリューション ワークロードをオンボードする</t>
+          <t>バックアップ ソリューションのデータ リポジトリが vSAN ストレージの外部に保存されていることを確認します。Azure ネイティブまたはディスク プールでバックアップされるデータストア上</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3596,7 +3596,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3617,13 +3617,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>ANF を使用して Azure VMware ソリューションのストレージを拡張する場合は、現時点では VM レベルでのみ使用してください (NFS データストアとしての ANF はまだプライベート プレビュー段階です)</t>
+          <t>Azure Arc for Servers を使用して Azure VMware Solution で実行されているワークロードがハイブリッド管理されていることを確認する (Arc for Azure VMware Solution はプレビュー段階です)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
+          <t>Azure VMware Solution で実行されているワークロードが Azure Log Analytics と Azure Monitor を使用して監視されていることを確認する</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3680,7 +3680,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3691,17 +3691,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>バックアップ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
+          <t>Azure VMware Solution で実行されているワークロードを、既存の更新プログラム管理ツールまたは Azure Update Management に含める</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3722,7 +3722,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3733,17 +3733,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>両方のサイトが Azure VMware Solution である場合は、VMware Site Recovery Manager を使用します</t>
+          <t>Azure Policy を使用して、Azure の管理、監視、セキュリティ ソリューションに Azure VMware Solution ワークロードをオンボードする</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3764,7 +3764,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3775,17 +3775,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS である場合は、Azure Site Recovery を使用します</t>
+          <t>Azure VMware Solution で実行されているワークロードが Microsoft Defender for Cloud にオンボードされていることを確認する</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3806,7 +3806,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3817,23 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>バックアップ</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
+          <t>vSAN は有限のリソースであるため、バックアップが vSAN に保存されないようにする</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3848,7 +3848,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3859,17 +3859,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>地政学的地域ペアをセカンダリ障害復旧環境として使用する</t>
+          <t>すべてのDRソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3890,7 +3890,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -3901,23 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>領域間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16 異なる領域の場合)</t>
+          <t>ディザスター リカバリー テクノロジがネイティブの Azure IaaS の場合は、Azure Site Recovery を使用します</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -3943,23 +3943,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチは、プライマリとセカンダリの Azure VMware ソリューション プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングが行われますか?</t>
+          <t>いずれかの災害ソリューションで自動復旧計画を使用し、手動タスクを可能な限り回避します</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3974,7 +3974,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -3985,17 +3985,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>MABSをバックアップソリューションとして使用する</t>
+          <t>地政学的リージョンのペアをセカンダリディザスタリカバリ環境として使用する</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4016,7 +4016,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4027,23 +4027,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューション プライベート クラウドと同じリージョンにバックアップ ソリューションをデプロイする</t>
+          <t>リージョン間で 2 つの異なるアドレス空間を使用します (例: 10.0.0.0/16 と 192.168.0.0/16)。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4069,17 +4069,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>ビジネス継続性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>できれば、MABS をネイティブの Azure IaaS として SDDC の外部にデプロイします</t>
+          <t>ExpressRoute Global Reach は、プライマリとセカンダリの Azure VMware Solution プライベート クラウド間の接続に使用されますか、それともネットワーク仮想アプライアンスを介してルーティングされますか?</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4111,7 +4111,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4121,13 +4121,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは整っていますか?</t>
+          <t>すべてのバックアップソリューションが検討され、ビジネスに最適なソリューションが決定されましたか?[ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4142,7 +4142,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4153,23 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>展開戦略</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>手動デプロイの場合は、すべての構成とデプロイを文書化する必要があります</t>
+          <t>バックアップ ソリューションを Azure VMware Solution プライベート クラウドと同じリージョンにデプロイする</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4195,23 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>展開戦略</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>手動デプロイの場合は、Azure VMware ソリューション プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックを実装することを検討してください</t>
+          <t>バックアップ ソリューションを vSan の外部の Azure ネイティブ コンポーネントにデプロイする</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4237,17 +4237,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイ</t>
+          <t>ビジネス継続性</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
+          <t>Azure プラットフォームによって管理されている VMware コンポーネントの復元を要求するプロセスは用意されていますか?</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4268,7 +4268,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイ</t>
+          <t>展開戦略</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
+          <t>手動デプロイの場合、すべての構成とデプロイを文書化する必要があります</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4310,7 +4310,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイ</t>
+          <t>展開戦略</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を通じて関連するリソース ロックが作成されていることを確認します</t>
+          <t>手動デプロイの場合は、Azure VMware Solution プライベート クラウドでの偶発的なアクションを防ぐために、リソース ロックの実装を検討してください</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4352,7 +4352,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>自動接続</t>
+          <t>自動展開</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにする</t>
+          <t>自動デプロイの場合は、最小限のプライベート クラウドをデプロイし、必要に応じてスケーリングします</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>自動接続</t>
+          <t>自動展開</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションと ExpressRoute のデプロイに別々のサービス プリンシパルが使用されている場合は、キー コンテナーを使用してシークレットと承認キーを格納する</t>
+          <t>自動デプロイの場合は、デプロイを開始する前にクォータを要求または予約します</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4436,7 +4436,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>自動接続</t>
+          <t>自動展開</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure VMware ソリューションでは限られた数の並列操作しかサポートされないため、Azure VMware ソリューション内または Azure VMware ソリューション上に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
+          <t>自動デプロイの場合は、適切なガバナンスのために、自動化または Azure Policy を使用して関連するリソース ロックが作成されていることを確認します</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4494,12 +4494,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>自動接続</t>
+          <t>自動化されたコネクティビティ</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>単一のレベル 1 ゲートウェイを使用して NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
+          <t>ExR 認証キーに人間が理解できる名前を実装して、キーの目的/用途を簡単に識別できるようにします</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4536,18 +4536,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>自動スケール</t>
+          <t>自動化されたコネクティビティ</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>自動スケールアウトを使用する場合は、Azure VMware ソリューションを実行しているサブスクリプションに対して十分な Azure VMware ソリューション クォータを申請してください</t>
+          <t>Azure VMware Solution と ExpressRoute のデプロイに個別のサービス プリンシパルを使用する場合は、キー コンテナーを使用してシークレットと承認キーを格納します</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4562,7 +4562,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4578,18 +4578,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>自動スケール</t>
+          <t>自動化されたコネクティビティ</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>自動スケールインを使用する場合は、このようなアクションを実行する前に、ストレージ ポリシーの要件を考慮してください</t>
+          <t>Azure VMware Solution では限られた数の並列操作しかサポートされないため、Azure VMware Solution に多くのリソースをデプロイする必要がある場合に、IaC でアクションをシリアル化するためのリソースの依存関係を定義します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>自動スケール</t>
+          <t>自動化されたコネクティビティ</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>一度に実行できるスケール操作は1つだけであるため、スケーリング操作は常に単一のSDDC内でシリアル化する必要があります(複数のクラスタを使用している場合でも)</t>
+          <t>単一の Tier-1 ゲートウェイで NSX-T セグメントの自動構成を実行する場合は、NSX-Manager API ではなく Azure Portal API を使用します</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4646,7 +4646,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>アーキテクチャで使用される3rdパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+          <t>自動スケールアウトを使用する場合は、Azure VMware Solution を実行しているサブスクリプションに対して十分な Azure VMware Solution クォータを申請してください</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -4688,7 +4688,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+          <t>自動スケールインを使用する場合は、そのようなアクションを実行する前に、ストレージ ポリシーの要件を必ず考慮してください</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -4730,7 +4730,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>自動スケーリング操作を監視し、成功と失敗を監視して適切な(自動化された)応答を有効にする監視ルールを実装します</t>
+          <t>スケーリング操作は、一度に 1 つのスケール操作しか実行できないため、常に 1 つの SDDC 内でシリアル化する必要があります (複数のクラスタが使用されている場合でも)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -4772,7 +4772,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -4781,271 +4781,719 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>自動スケール</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>アーキテクチャで使用されるサードパーティソリューションでのスケーリング操作を検討および検証します(サポートされているかどうか)</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>自動スケール</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>自動化で環境のスケールイン/スケールアウトの上限を定義して適用する</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>自動スケール</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>監視ルールを実装して、自動スケーリング操作を監視し、成功と失敗を監視して、適切な (自動化された) 応答を有効にします</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>MONを使用する場合は、同時に構成されたVMの制限(HCXのMON制限[400 - 標準、1000 - 大規模アプライアンス])に注意してください</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>MON を使用する場合、100 を超えるネットワーク拡張で MON を有効にすることはできません</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>移行に VPN 接続を使用する場合は、それに応じて MTU サイズを調整します。</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Azure に接続する接続性の低いリージョン (500 Mbps 以下) の場合は、HCX WAN 最適化アプライアンスのデプロイを検討してください</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>過程</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>移行がオンプレミスアプライアンスから開始され、クラウドアプライアンスから開始されていないことを確認します(逆移行は実行しないでください)</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>データストレージ</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files を使用して Azure VMware Solution のストレージを拡張する場合は、VM に直接接続するのではなく、これを VMware データストアとして使用することを検討してください。</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>データストレージ</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>専用の ExpressRoute ゲートウェイが外部データ ストレージ ソリューションに使用されていることを確認する</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>データストレージ</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>外部データ ストレージ ソリューションに使用されている ExpressRoute ゲートウェイで FastPath が有効になっていることを確認します</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスター</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスタを使用している場合は、選択したディザスタ リカバリ ソリューションがベンダーによってサポートされていることを確認します</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスター</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用する場合は、提供される SLA が要件を満たしていることを確認します</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスター</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線が接続ハブに接続されていることを確認します。</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスター</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスターを使用している場合は、両方の ExpressRoute 回線で GlobalReach が有効になっていることを確認します。</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>ストレッチ クラスター</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>サイトの耐障害性の設定を適切に検討し、必要に応じてビジネスに合わせて変更しましたか?</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
@@ -8036,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F113" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8169,7 +8617,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -8196,7 +8644,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8208,7 +8656,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8218,7 +8666,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8235,7 +8683,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>BCDR (英語)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
